--- a/ig/core/StructureDefinition-medcom-core-identifier-extension.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-identifier-extension.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="113">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.4.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T14:13:17+02:00</t>
+    <t>2025-09-24T12:42:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -366,15 +366,6 @@
   <si>
     <t xml:space="preserve">Identifier {http://medcomfhir.dk/ig/core/StructureDefinition/medcom-assigned-identifier}
 </t>
-  </si>
-  <si>
-    <t>An identifier intended for computation</t>
-  </si>
-  <si>
-    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
   </si>
 </sst>
 </file>
@@ -711,42 +702,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.02734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.08203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="7.68359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="27.46484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.26953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.1015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.16796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="16.828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="137.703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1410,10 +1401,10 @@
         <v>112</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1473,13 +1464,13 @@
         <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>108</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/ig/core/StructureDefinition-medcom-core-identifier-extension.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-identifier-extension.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T12:42:36+00:00</t>
+    <t>2025-10-29T07:28:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/core/StructureDefinition-medcom-core-identifier-extension.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-identifier-extension.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T07:28:01+00:00</t>
+    <t>2026-01-13T14:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
